--- a/public/templates/Finance_Training_Schedule.xlsx
+++ b/public/templates/Finance_Training_Schedule.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>FINANCE IMPLEMENTATION PROJECT - TRAINING SCHEDULE</t>
+          <t>Banking IMPLEMENTATION PROJECT - TRAINING SCHEDULE</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>Enterprise FINANCE Training Schedule</t>
+          <t>Enterprise Banking Implementation</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -599,6 +599,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
@@ -656,7 +657,7 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>AI/ML Fundamentals (AI-101)</t>
+          <t>Banking Fundamentals (AI-101)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -701,7 +702,7 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>AI/ML Platform Overview (AI-102)</t>
+          <t>Banking Platform Overview (AI-102)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -1013,6 +1014,7 @@
         </is>
       </c>
     </row>
+    <row r="17"/>
     <row r="18">
       <c r="A18" s="5" t="inlineStr">
         <is>
@@ -1227,6 +1229,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -1297,7 +1300,7 @@
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
-          <t>AI/ML Fundamentals</t>
+          <t>Banking Fundamentals</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
@@ -1355,7 +1358,7 @@
       </c>
       <c r="B5" s="7" t="inlineStr">
         <is>
-          <t>AI/ML Platform Overview</t>
+          <t>Banking Platform Overview</t>
         </is>
       </c>
       <c r="C5" s="8" t="inlineStr">
@@ -2318,6 +2321,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -2948,6 +2952,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -3579,6 +3584,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
